--- a/Not Used Anymore/PR-Diff/Excel/precision_recall_differenceSegmentinoLeftGraph.xlsx
+++ b/Not Used Anymore/PR-Diff/Excel/precision_recall_differenceSegmentinoLeftGraph.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxmal\Documents\GitHub\4. Semester\Music-Structure-Analysis\Not Used Anymore\PR-Diff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxmal\Documents\GitHub\4. Semester\Music-Structure-Analysis\Not Used Anymore\PR-Diff\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24A49C4-58E3-441A-B5FC-3A4360193BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABB63D6-2AF8-4940-8384-7B87DAFEF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56812D42-45AF-4DCA-BCD6-733A7E2489B8}"/>
   </bookViews>
   <sheets>
     <sheet name="precision_recall_differenceSegm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>Precision (Folder1)</t>
   </si>
@@ -38,6 +51,36 @@
   </si>
   <si>
     <t>Recall Difference</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Total Left</t>
+  </si>
+  <si>
+    <t>Total Right</t>
+  </si>
+  <si>
+    <t>Only Left</t>
+  </si>
+  <si>
+    <t>Only Right</t>
+  </si>
+  <si>
+    <t>Rigtige</t>
+  </si>
+  <si>
+    <t>Fælles</t>
+  </si>
+  <si>
+    <t>Total forkert</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
   </si>
 </sst>
 </file>
@@ -180,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +403,48 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FFF9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -521,8 +606,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Farve1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -570,6 +663,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF7D"/>
+      <color rgb="FF9FFF9F"/>
+      <color rgb="FF9BC3FF"/>
+      <color rgb="FFFFFFB7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2270,15 +2371,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F479A0F-23C1-4A04-9D07-02353C25200D}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="U71" sqref="U71:U72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2297,8 +2401,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2317,8 +2427,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2337,8 +2453,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2357,8 +2476,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2377,8 +2502,14 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.6522</v>
       </c>
@@ -2397,8 +2528,11 @@
       <c r="F6">
         <v>0.6522</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.61109999999999998</v>
       </c>
@@ -2417,8 +2551,11 @@
       <c r="F7">
         <v>0.73329999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2437,8 +2574,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2457,8 +2600,14 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.1111</v>
       </c>
@@ -2477,8 +2626,12 @@
       <c r="F10">
         <v>0.1333</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1905</v>
       </c>
@@ -2497,8 +2650,11 @@
       <c r="F11">
         <v>0.22220000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2517,8 +2673,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2537,8 +2696,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -2557,8 +2722,11 @@
       <c r="F14">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2577,8 +2745,15 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2597,8 +2772,14 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.21429999999999999</v>
       </c>
@@ -2617,8 +2798,11 @@
       <c r="F17">
         <v>0.17649999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4.3499999999999997E-2</v>
       </c>
@@ -2637,8 +2821,11 @@
       <c r="F18">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2657,8 +2844,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2677,8 +2870,14 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.625</v>
       </c>
@@ -2697,8 +2896,11 @@
       <c r="F21">
         <v>0.66669999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.5625</v>
       </c>
@@ -2717,8 +2919,11 @@
       <c r="F22">
         <v>0.52939999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.55559999999999998</v>
       </c>
@@ -2737,8 +2942,11 @@
       <c r="F23">
         <v>0.66669999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2757,8 +2965,14 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.5499999999999999E-2</v>
       </c>
@@ -2777,8 +2991,11 @@
       <c r="F25">
         <v>7.1400000000000005E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.22220000000000001</v>
       </c>
@@ -2797,8 +3014,11 @@
       <c r="F26">
         <v>0.36359999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.57889999999999997</v>
       </c>
@@ -2817,8 +3037,11 @@
       <c r="F27">
         <v>0.61109999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.16669999999999999</v>
       </c>
@@ -2837,8 +3060,11 @@
       <c r="F28">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2857,8 +3083,14 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.92859999999999998</v>
       </c>
@@ -2877,8 +3109,11 @@
       <c r="F30">
         <v>0.86670000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.4</v>
       </c>
@@ -2897,8 +3132,11 @@
       <c r="F31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.72219999999999995</v>
       </c>
@@ -2917,8 +3155,12 @@
       <c r="F32">
         <v>0.86670000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2937,8 +3179,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2957,8 +3202,14 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2977,8 +3228,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.1429</v>
       </c>
@@ -2997,8 +3251,11 @@
       <c r="F36">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3017,8 +3274,14 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.29409999999999997</v>
       </c>
@@ -3037,8 +3300,11 @@
       <c r="F38">
         <v>0.3846</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3057,8 +3323,14 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.23530000000000001</v>
       </c>
@@ -3077,8 +3349,11 @@
       <c r="F40">
         <v>0.28570000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.1053</v>
       </c>
@@ -3097,8 +3372,11 @@
       <c r="F41">
         <v>0.22220000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.4118</v>
       </c>
@@ -3117,8 +3395,11 @@
       <c r="F42">
         <v>0.58330000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.33329999999999999</v>
       </c>
@@ -3137,8 +3418,11 @@
       <c r="F43">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3157,8 +3441,14 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3177,8 +3467,11 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3197,8 +3490,14 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3217,8 +3516,14 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3237,8 +3542,14 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.15790000000000001</v>
       </c>
@@ -3257,8 +3568,11 @@
       <c r="F49">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I49" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.6875</v>
       </c>
@@ -3277,8 +3591,11 @@
       <c r="F50">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3297,8 +3614,14 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -3317,8 +3640,11 @@
       <c r="F52">
         <v>0.52629999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3337,8 +3663,14 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3357,8 +3689,14 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3377,8 +3715,14 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9.5200000000000007E-2</v>
       </c>
@@ -3397,8 +3741,11 @@
       <c r="F56">
         <v>0.33329999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3417,8 +3764,14 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.1111</v>
       </c>
@@ -3437,8 +3790,11 @@
       <c r="F58">
         <v>5.8799999999999998E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I58" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3457,8 +3813,14 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.52629999999999999</v>
       </c>
@@ -3477,8 +3839,11 @@
       <c r="F60">
         <v>0.66669999999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8.3299999999999999E-2</v>
       </c>
@@ -3497,8 +3862,11 @@
       <c r="F61">
         <v>0.1111</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3517,8 +3885,14 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.75</v>
       </c>
@@ -3537,8 +3911,11 @@
       <c r="F63">
         <v>0.78259999999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.1429</v>
       </c>
@@ -3557,8 +3934,11 @@
       <c r="F64">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I64" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.85709999999999997</v>
       </c>
@@ -3577,8 +3957,11 @@
       <c r="F65">
         <v>0.85709999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3597,8 +3980,11 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -3617,8 +4003,14 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -3637,8 +4029,14 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -3657,8 +4055,11 @@
       <c r="F69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.4118</v>
       </c>
@@ -3677,8 +4078,11 @@
       <c r="F70">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -3697,8 +4101,11 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.13039999999999999</v>
       </c>
@@ -3717,8 +4124,11 @@
       <c r="F72">
         <v>0.16669999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -3736,6 +4146,81 @@
       </c>
       <c r="F73">
         <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>37</v>
+      </c>
+      <c r="H76">
+        <v>43</v>
+      </c>
+      <c r="I76">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>27</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>6</v>
+      </c>
+      <c r="H81">
+        <v>29</v>
+      </c>
+      <c r="I81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f xml:space="preserve"> 29/72</f>
+        <v>0.40277777777777779</v>
       </c>
     </row>
   </sheetData>
